--- a/event_info.xlsx
+++ b/event_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3160" windowWidth="19200" windowHeight="19700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="-3160" windowWidth="19200" windowHeight="19680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cutscenes &amp; Actions" sheetId="3" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
